--- a/input_data_spreadsheet/straits_country.xlsx
+++ b/input_data_spreadsheet/straits_country.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t xml:space="preserve">strait_name</t>
   </si>
@@ -46,7 +46,10 @@
     <t xml:space="preserve">Djibouti</t>
   </si>
   <si>
-    <t xml:space="preserve">Papua New Guinea</t>
+    <t xml:space="preserve">Eritrea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yemen</t>
   </si>
   <si>
     <t xml:space="preserve">DANISH GREAT BELT STRAIT</t>
@@ -76,6 +79,12 @@
     <t xml:space="preserve">Malaysia</t>
   </si>
   <si>
+    <t xml:space="preserve">Singapore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indonesia</t>
+  </si>
+  <si>
     <t xml:space="preserve">PANAMA CANAL</t>
   </si>
   <si>
@@ -85,38 +94,16 @@
     <t xml:space="preserve">SINGAPORE STRAIT</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Singapore</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF202124"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Sri Lanka</t>
-  </si>
-  <si>
     <t xml:space="preserve">STRAIT OF GIBRALTAR</t>
   </si>
   <si>
     <t xml:space="preserve">United Kingdom</t>
   </si>
   <si>
-    <t xml:space="preserve">Indonesia</t>
+    <t xml:space="preserve">Morocco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain</t>
   </si>
   <si>
     <t xml:space="preserve">STRAIT OF HORMUZ</t>
@@ -125,22 +112,16 @@
     <t xml:space="preserve">Oman</t>
   </si>
   <si>
-    <t xml:space="preserve">Morocco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spain</t>
+    <t xml:space="preserve">Iran, Islamic Rep.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Arab Emirates</t>
   </si>
   <si>
     <t xml:space="preserve">SUEZ STRAIT</t>
   </si>
   <si>
     <t xml:space="preserve">Egypt, Arab Rep.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eritrea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yemen</t>
   </si>
   <si>
     <t xml:space="preserve">TAI-WAN STRAIT</t>
@@ -175,7 +156,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -202,13 +183,6 @@
       <sz val="11"/>
       <color rgb="FFC9211E"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF202124"/>
-      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -342,7 +316,7 @@
       <rgbColor rgb="FFC9211E"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF202124"/>
+      <rgbColor rgb="FF333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -360,7 +334,7 @@
   <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
@@ -402,127 +376,133 @@
       <c r="D2" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="E2" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>16</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="4" t="n">
         <v>14.16</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>16</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>1014</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B8" s="4" t="n">
         <v>6.43</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>4.3</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>20</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>633</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="0" t="s">
         <v>32</v>
       </c>
     </row>
